--- a/CumulativeTestsByTypeByCounty/2021-03-02.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-02.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>47566</v>
+        <v>47588</v>
       </c>
       <c r="C2" s="4">
         <v>1420</v>
       </c>
       <c r="D2" s="4">
-        <v>5809</v>
+        <v>5831</v>
       </c>
       <c r="E2" s="4">
-        <v>54795</v>
+        <v>54839</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="C3" s="4">
         <v>199</v>
       </c>
       <c r="D3" s="4">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E3" s="4">
-        <v>6142</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>51111</v>
+        <v>51143</v>
       </c>
       <c r="C4" s="4">
         <v>1482</v>
       </c>
       <c r="D4" s="4">
-        <v>17225</v>
+        <v>17735</v>
       </c>
       <c r="E4" s="4">
-        <v>69818</v>
+        <v>70360</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6657</v>
+        <v>6673</v>
       </c>
       <c r="C5" s="4">
         <v>2033</v>
       </c>
       <c r="D5" s="4">
-        <v>4389</v>
+        <v>4418</v>
       </c>
       <c r="E5" s="4">
-        <v>13079</v>
+        <v>13124</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2755</v>
+        <v>2763</v>
       </c>
       <c r="C6" s="4">
         <v>415</v>
       </c>
       <c r="D6" s="4">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E6" s="4">
-        <v>3582</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C7" s="4">
         <v>211</v>
       </c>
       <c r="D7" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>47070</v>
+        <v>47214</v>
       </c>
       <c r="C8" s="4">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D8" s="4">
-        <v>3676</v>
+        <v>3701</v>
       </c>
       <c r="E8" s="4">
-        <v>51752</v>
+        <v>51924</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15878</v>
+        <v>15905</v>
       </c>
       <c r="C9" s="4">
         <v>426</v>
       </c>
       <c r="D9" s="4">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="E9" s="4">
-        <v>17177</v>
+        <v>17226</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7008</v>
+        <v>7037</v>
       </c>
       <c r="C11" s="4">
         <v>418</v>
       </c>
       <c r="D11" s="4">
-        <v>2876</v>
+        <v>2914</v>
       </c>
       <c r="E11" s="4">
-        <v>10302</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>45147</v>
+        <v>45254</v>
       </c>
       <c r="C12" s="4">
         <v>1057</v>
       </c>
       <c r="D12" s="4">
-        <v>13483</v>
+        <v>13614</v>
       </c>
       <c r="E12" s="4">
-        <v>59687</v>
+        <v>59925</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C13" s="4">
         <v>117</v>
@@ -1267,7 +1267,7 @@
         <v>810</v>
       </c>
       <c r="E13" s="4">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>28897</v>
+        <v>28902</v>
       </c>
       <c r="C14" s="4">
         <v>4971</v>
       </c>
       <c r="D14" s="4">
-        <v>5788</v>
+        <v>5807</v>
       </c>
       <c r="E14" s="4">
-        <v>39656</v>
+        <v>39680</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>216612</v>
+        <v>216763</v>
       </c>
       <c r="C15" s="4">
-        <v>12928</v>
+        <v>12929</v>
       </c>
       <c r="D15" s="4">
-        <v>11065</v>
+        <v>11178</v>
       </c>
       <c r="E15" s="4">
-        <v>240605</v>
+        <v>240870</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1636340</v>
+        <v>1639099</v>
       </c>
       <c r="C16" s="4">
-        <v>43960</v>
+        <v>44085</v>
       </c>
       <c r="D16" s="4">
-        <v>155357</v>
+        <v>157734</v>
       </c>
       <c r="E16" s="4">
-        <v>1835657</v>
+        <v>1840918</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5137</v>
+        <v>5143</v>
       </c>
       <c r="C17" s="4">
         <v>224</v>
       </c>
       <c r="D17" s="4">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="E17" s="4">
-        <v>5899</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8122</v>
+        <v>8132</v>
       </c>
       <c r="C19" s="4">
         <v>459</v>
       </c>
       <c r="D19" s="4">
-        <v>4053</v>
+        <v>4060</v>
       </c>
       <c r="E19" s="4">
-        <v>12634</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>54723</v>
+        <v>54801</v>
       </c>
       <c r="C20" s="4">
-        <v>9715</v>
+        <v>9722</v>
       </c>
       <c r="D20" s="4">
-        <v>8714</v>
+        <v>8732</v>
       </c>
       <c r="E20" s="4">
-        <v>73152</v>
+        <v>73255</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>279807</v>
+        <v>280561</v>
       </c>
       <c r="C21" s="4">
-        <v>8731</v>
+        <v>8738</v>
       </c>
       <c r="D21" s="4">
-        <v>25323</v>
+        <v>25949</v>
       </c>
       <c r="E21" s="4">
-        <v>313861</v>
+        <v>315248</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>214256</v>
+        <v>214322</v>
       </c>
       <c r="C22" s="4">
         <v>5418</v>
       </c>
       <c r="D22" s="4">
-        <v>13279</v>
+        <v>13628</v>
       </c>
       <c r="E22" s="4">
-        <v>232953</v>
+        <v>233368</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8359</v>
+        <v>8415</v>
       </c>
       <c r="C23" s="4">
         <v>109</v>
       </c>
       <c r="D23" s="4">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="E23" s="4">
-        <v>9164</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C24" s="4">
         <v>113</v>
@@ -1454,7 +1454,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="4">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12779</v>
+        <v>12781</v>
       </c>
       <c r="C25" s="4">
         <v>1279</v>
       </c>
       <c r="D25" s="4">
-        <v>1603</v>
+        <v>1661</v>
       </c>
       <c r="E25" s="4">
-        <v>15661</v>
+        <v>15721</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15616</v>
+        <v>15626</v>
       </c>
       <c r="C26" s="4">
         <v>741</v>
       </c>
       <c r="D26" s="4">
-        <v>15212</v>
+        <v>15373</v>
       </c>
       <c r="E26" s="4">
-        <v>31569</v>
+        <v>31740</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12627</v>
+        <v>12630</v>
       </c>
       <c r="C27" s="4">
         <v>233</v>
       </c>
       <c r="D27" s="4">
-        <v>1908</v>
+        <v>1944</v>
       </c>
       <c r="E27" s="4">
-        <v>14768</v>
+        <v>14807</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>29479</v>
+        <v>29496</v>
       </c>
       <c r="C28" s="4">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D28" s="4">
-        <v>2795</v>
+        <v>2861</v>
       </c>
       <c r="E28" s="4">
-        <v>33306</v>
+        <v>33391</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>29241</v>
+        <v>29265</v>
       </c>
       <c r="C29" s="4">
         <v>1508</v>
       </c>
       <c r="D29" s="4">
-        <v>4583</v>
+        <v>4610</v>
       </c>
       <c r="E29" s="4">
-        <v>35332</v>
+        <v>35383</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12335</v>
+        <v>12373</v>
       </c>
       <c r="C30" s="4">
         <v>303</v>
       </c>
       <c r="D30" s="4">
-        <v>3890</v>
+        <v>3916</v>
       </c>
       <c r="E30" s="4">
-        <v>16528</v>
+        <v>16592</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="C31" s="4">
         <v>216</v>
       </c>
       <c r="D31" s="4">
-        <v>4322</v>
+        <v>4355</v>
       </c>
       <c r="E31" s="4">
-        <v>9307</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>224341</v>
+        <v>224820</v>
       </c>
       <c r="C32" s="4">
-        <v>7355</v>
+        <v>7363</v>
       </c>
       <c r="D32" s="4">
-        <v>37039</v>
+        <v>38086</v>
       </c>
       <c r="E32" s="4">
-        <v>268735</v>
+        <v>270269</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5371</v>
+        <v>5395</v>
       </c>
       <c r="C33" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D33" s="4">
-        <v>1477</v>
+        <v>1509</v>
       </c>
       <c r="E33" s="4">
-        <v>7199</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="C34" s="4">
         <v>762</v>
       </c>
       <c r="D34" s="4">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E34" s="4">
-        <v>2516</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11087</v>
+        <v>11104</v>
       </c>
       <c r="C35" s="4">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="D35" s="4">
-        <v>2827</v>
+        <v>2864</v>
       </c>
       <c r="E35" s="4">
-        <v>17018</v>
+        <v>17074</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C36" s="4">
         <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="E36" s="4">
-        <v>5478</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7185</v>
+        <v>7191</v>
       </c>
       <c r="C37" s="4">
         <v>539</v>
       </c>
       <c r="D37" s="4">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="E37" s="4">
-        <v>8851</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>20714</v>
+        <v>20781</v>
       </c>
       <c r="C38" s="4">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D38" s="4">
-        <v>6400</v>
+        <v>6486</v>
       </c>
       <c r="E38" s="4">
-        <v>27849</v>
+        <v>28003</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1706,10 +1706,10 @@
         <v>299</v>
       </c>
       <c r="D39" s="4">
-        <v>3945</v>
+        <v>3951</v>
       </c>
       <c r="E39" s="4">
-        <v>6881</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3825</v>
+        <v>3844</v>
       </c>
       <c r="C40" s="4">
         <v>361</v>
       </c>
       <c r="D40" s="4">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="E40" s="4">
-        <v>5352</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1757,10 +1757,10 @@
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="E42" s="4">
-        <v>3452</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C43" s="4">
         <v>83</v>
       </c>
       <c r="D43" s="4">
-        <v>2267</v>
+        <v>2520</v>
       </c>
       <c r="E43" s="4">
-        <v>5243</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>794320</v>
+        <v>796555</v>
       </c>
       <c r="C44" s="4">
-        <v>75863</v>
+        <v>75921</v>
       </c>
       <c r="D44" s="4">
-        <v>73278</v>
+        <v>74587</v>
       </c>
       <c r="E44" s="4">
-        <v>943461</v>
+        <v>947063</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C45" s="4">
         <v>88</v>
       </c>
       <c r="D45" s="4">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E45" s="4">
-        <v>2263</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10814</v>
+        <v>10818</v>
       </c>
       <c r="C46" s="4">
         <v>263</v>
       </c>
       <c r="D46" s="4">
-        <v>3191</v>
+        <v>3211</v>
       </c>
       <c r="E46" s="4">
-        <v>14268</v>
+        <v>14292</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>85652</v>
+        <v>85792</v>
       </c>
       <c r="C47" s="4">
-        <v>6643</v>
+        <v>6659</v>
       </c>
       <c r="D47" s="4">
-        <v>15373</v>
+        <v>15526</v>
       </c>
       <c r="E47" s="4">
-        <v>107668</v>
+        <v>107977</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6099</v>
+        <v>6104</v>
       </c>
       <c r="C48" s="4">
         <v>292</v>
       </c>
       <c r="D48" s="4">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="E48" s="4">
-        <v>8378</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="E49" s="4">
-        <v>2707</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21545</v>
+        <v>21578</v>
       </c>
       <c r="C50" s="4">
         <v>1257</v>
       </c>
       <c r="D50" s="4">
-        <v>4065</v>
+        <v>4078</v>
       </c>
       <c r="E50" s="4">
-        <v>26867</v>
+        <v>26913</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>76916</v>
+        <v>77345</v>
       </c>
       <c r="C51" s="4">
         <v>2110</v>
       </c>
       <c r="D51" s="4">
-        <v>2743</v>
+        <v>2797</v>
       </c>
       <c r="E51" s="4">
-        <v>81769</v>
+        <v>82252</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1927,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E52" s="4">
-        <v>1303</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1944,10 +1944,10 @@
         <v>65</v>
       </c>
       <c r="D53" s="4">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="E53" s="4">
-        <v>5280</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="4">
-        <v>2730</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,13 +1975,13 @@
         <v>2294</v>
       </c>
       <c r="C55" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4">
         <v>1419</v>
       </c>
       <c r="E55" s="4">
-        <v>3732</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E56" s="4">
-        <v>2204</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2012,10 +2012,10 @@
         <v>257</v>
       </c>
       <c r="D57" s="4">
-        <v>1399</v>
+        <v>1534</v>
       </c>
       <c r="E57" s="4">
-        <v>2695</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2028395</v>
+        <v>2034821</v>
       </c>
       <c r="C58" s="4">
-        <v>124799</v>
+        <v>125031</v>
       </c>
       <c r="D58" s="4">
-        <v>154032</v>
+        <v>157531</v>
       </c>
       <c r="E58" s="4">
-        <v>2307226</v>
+        <v>2317383</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2046,10 +2046,10 @@
         <v>435</v>
       </c>
       <c r="D59" s="4">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="E59" s="4">
-        <v>9597</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8061</v>
+        <v>8065</v>
       </c>
       <c r="C60" s="4">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D60" s="4">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="E60" s="4">
-        <v>10401</v>
+        <v>10417</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4353</v>
+        <v>4356</v>
       </c>
       <c r="C61" s="4">
         <v>712</v>
       </c>
       <c r="D61" s="4">
-        <v>1848</v>
+        <v>1862</v>
       </c>
       <c r="E61" s="4">
-        <v>6913</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C62" s="4">
         <v>210</v>
       </c>
       <c r="D62" s="4">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E62" s="4">
-        <v>2741</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>495279</v>
+        <v>496770</v>
       </c>
       <c r="C63" s="4">
-        <v>55887</v>
+        <v>55905</v>
       </c>
       <c r="D63" s="4">
-        <v>65803</v>
+        <v>66809</v>
       </c>
       <c r="E63" s="4">
-        <v>616969</v>
+        <v>619484</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9415</v>
+        <v>9421</v>
       </c>
       <c r="C65" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D65" s="4">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="E65" s="4">
-        <v>10266</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C66" s="4">
         <v>321</v>
       </c>
       <c r="D66" s="4">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E66" s="4">
-        <v>2035</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15750</v>
+        <v>15770</v>
       </c>
       <c r="C67" s="4">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="D67" s="4">
-        <v>1497</v>
+        <v>1563</v>
       </c>
       <c r="E67" s="4">
-        <v>19451</v>
+        <v>19541</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4333</v>
+        <v>4350</v>
       </c>
       <c r="C68" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D68" s="4">
-        <v>3081</v>
+        <v>3099</v>
       </c>
       <c r="E68" s="4">
-        <v>7751</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>54317</v>
+        <v>54430</v>
       </c>
       <c r="C69" s="4">
-        <v>4328</v>
+        <v>4352</v>
       </c>
       <c r="D69" s="4">
-        <v>14493</v>
+        <v>14679</v>
       </c>
       <c r="E69" s="4">
-        <v>73138</v>
+        <v>73461</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2233,10 +2233,10 @@
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E70" s="4">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>768886</v>
+        <v>771995</v>
       </c>
       <c r="C71" s="4">
-        <v>15935</v>
+        <v>15940</v>
       </c>
       <c r="D71" s="4">
-        <v>166252</v>
+        <v>168926</v>
       </c>
       <c r="E71" s="4">
-        <v>951073</v>
+        <v>956861</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>146073</v>
+        <v>146427</v>
       </c>
       <c r="C72" s="4">
-        <v>6740</v>
+        <v>6743</v>
       </c>
       <c r="D72" s="4">
-        <v>8383</v>
+        <v>11625</v>
       </c>
       <c r="E72" s="4">
-        <v>161196</v>
+        <v>164795</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>16062</v>
+        <v>16103</v>
       </c>
       <c r="C73" s="4">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D73" s="4">
-        <v>5411</v>
+        <v>5528</v>
       </c>
       <c r="E73" s="4">
-        <v>22550</v>
+        <v>22710</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11452</v>
+        <v>11455</v>
       </c>
       <c r="C74" s="4">
         <v>393</v>
       </c>
       <c r="D74" s="4">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="E74" s="4">
-        <v>13333</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>22748</v>
+        <v>22848</v>
       </c>
       <c r="C75" s="4">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D75" s="4">
-        <v>3988</v>
+        <v>4030</v>
       </c>
       <c r="E75" s="4">
-        <v>27475</v>
+        <v>27619</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12647</v>
+        <v>12655</v>
       </c>
       <c r="C76" s="4">
         <v>376</v>
       </c>
       <c r="D76" s="4">
-        <v>1735</v>
+        <v>1775</v>
       </c>
       <c r="E76" s="4">
-        <v>14758</v>
+        <v>14806</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
@@ -2355,7 +2355,7 @@
         <v>235</v>
       </c>
       <c r="E77" s="4">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2119</v>
+        <v>2127</v>
       </c>
       <c r="C78" s="4">
         <v>109</v>
@@ -2372,7 +2372,7 @@
         <v>305</v>
       </c>
       <c r="E78" s="4">
-        <v>2533</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C79" s="4">
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E79" s="4">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>564476</v>
+        <v>565636</v>
       </c>
       <c r="C80" s="4">
-        <v>21062</v>
+        <v>21071</v>
       </c>
       <c r="D80" s="4">
-        <v>27677</v>
+        <v>28912</v>
       </c>
       <c r="E80" s="4">
-        <v>613215</v>
+        <v>615619</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3976</v>
+        <v>4016</v>
       </c>
       <c r="C81" s="4">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D81" s="4">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E81" s="4">
-        <v>5057</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12721</v>
+        <v>12724</v>
       </c>
       <c r="C82" s="4">
         <v>646</v>
       </c>
       <c r="D82" s="4">
-        <v>3805</v>
+        <v>3857</v>
       </c>
       <c r="E82" s="4">
-        <v>17172</v>
+        <v>17227</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15018</v>
+        <v>15025</v>
       </c>
       <c r="C83" s="4">
         <v>414</v>
       </c>
       <c r="D83" s="4">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="E83" s="4">
-        <v>16065</v>
+        <v>16089</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="C84" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D84" s="4">
         <v>732</v>
       </c>
       <c r="E84" s="4">
-        <v>4023</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>301931</v>
+        <v>302419</v>
       </c>
       <c r="C85" s="4">
-        <v>9021</v>
+        <v>9064</v>
       </c>
       <c r="D85" s="4">
-        <v>20662</v>
+        <v>21164</v>
       </c>
       <c r="E85" s="4">
-        <v>331614</v>
+        <v>332647</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C86" s="4">
         <v>46</v>
       </c>
       <c r="D86" s="4">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E86" s="4">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14560</v>
+        <v>14571</v>
       </c>
       <c r="C87" s="4">
         <v>351</v>
       </c>
       <c r="D87" s="4">
-        <v>2871</v>
+        <v>2919</v>
       </c>
       <c r="E87" s="4">
-        <v>17782</v>
+        <v>17841</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="C89" s="4">
         <v>149</v>
       </c>
       <c r="D89" s="4">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="E89" s="4">
-        <v>4047</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11683</v>
+        <v>11692</v>
       </c>
       <c r="C90" s="4">
         <v>287</v>
       </c>
       <c r="D90" s="4">
-        <v>3104</v>
+        <v>3152</v>
       </c>
       <c r="E90" s="4">
-        <v>15074</v>
+        <v>15131</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6934</v>
+        <v>6940</v>
       </c>
       <c r="C91" s="4">
         <v>820</v>
       </c>
       <c r="D91" s="4">
-        <v>1650</v>
+        <v>1668</v>
       </c>
       <c r="E91" s="4">
-        <v>9404</v>
+        <v>9428</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>92673</v>
+        <v>93272</v>
       </c>
       <c r="C92" s="4">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="D92" s="4">
-        <v>10713</v>
+        <v>10937</v>
       </c>
       <c r="E92" s="4">
-        <v>107008</v>
+        <v>107832</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>43578</v>
+        <v>43602</v>
       </c>
       <c r="C93" s="4">
-        <v>9820</v>
+        <v>9821</v>
       </c>
       <c r="D93" s="4">
-        <v>12808</v>
+        <v>12832</v>
       </c>
       <c r="E93" s="4">
-        <v>66206</v>
+        <v>66255</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>25066</v>
+        <v>25077</v>
       </c>
       <c r="C94" s="4">
         <v>467</v>
       </c>
       <c r="D94" s="4">
-        <v>1874</v>
+        <v>1895</v>
       </c>
       <c r="E94" s="4">
-        <v>27407</v>
+        <v>27439</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>68252</v>
+        <v>68368</v>
       </c>
       <c r="C95" s="4">
-        <v>3098</v>
+        <v>3103</v>
       </c>
       <c r="D95" s="4">
-        <v>12902</v>
+        <v>13036</v>
       </c>
       <c r="E95" s="4">
-        <v>84252</v>
+        <v>84507</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>12088</v>
+        <v>12094</v>
       </c>
       <c r="C96" s="4">
         <v>273</v>
       </c>
       <c r="D96" s="4">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="E96" s="4">
-        <v>14236</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C97" s="4">
         <v>38</v>
       </c>
       <c r="D97" s="4">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="E97" s="4">
-        <v>3075</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4562</v>
+        <v>4579</v>
       </c>
       <c r="C98" s="4">
         <v>294</v>
       </c>
       <c r="D98" s="4">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="E98" s="4">
-        <v>5891</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C99" s="4">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D99" s="4">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="E99" s="4">
-        <v>3355</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="C100" s="4">
         <v>178</v>
       </c>
       <c r="D100" s="4">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E100" s="4">
-        <v>2420</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>17964</v>
+        <v>18011</v>
       </c>
       <c r="C101" s="4">
         <v>3122</v>
       </c>
       <c r="D101" s="4">
-        <v>5062</v>
+        <v>5179</v>
       </c>
       <c r="E101" s="4">
-        <v>26148</v>
+        <v>26312</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3454133</v>
+        <v>3464013</v>
       </c>
       <c r="C102" s="4">
-        <v>127250</v>
+        <v>127373</v>
       </c>
       <c r="D102" s="4">
-        <v>232031</v>
+        <v>246070</v>
       </c>
       <c r="E102" s="4">
-        <v>3813414</v>
+        <v>3837456</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>53321</v>
+        <v>53367</v>
       </c>
       <c r="C103" s="4">
         <v>7285</v>
       </c>
       <c r="D103" s="4">
-        <v>7278</v>
+        <v>7302</v>
       </c>
       <c r="E103" s="4">
-        <v>67884</v>
+        <v>67954</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>42</v>
       </c>
       <c r="D104" s="4">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E104" s="4">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="E105" s="4">
-        <v>2472</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>203234</v>
+        <v>203404</v>
       </c>
       <c r="C106" s="4">
-        <v>10059</v>
+        <v>10061</v>
       </c>
       <c r="D106" s="4">
-        <v>11909</v>
+        <v>12224</v>
       </c>
       <c r="E106" s="4">
-        <v>225202</v>
+        <v>225689</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C107" s="4">
         <v>352</v>
       </c>
       <c r="D107" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E107" s="4">
-        <v>1372</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>24044</v>
+        <v>24073</v>
       </c>
       <c r="C108" s="4">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D108" s="4">
-        <v>6284</v>
+        <v>6369</v>
       </c>
       <c r="E108" s="4">
-        <v>32399</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>395321</v>
+        <v>396408</v>
       </c>
       <c r="C109" s="4">
-        <v>14316</v>
+        <v>14321</v>
       </c>
       <c r="D109" s="4">
-        <v>92794</v>
+        <v>95809</v>
       </c>
       <c r="E109" s="4">
-        <v>502431</v>
+        <v>506538</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>30161</v>
+        <v>30179</v>
       </c>
       <c r="C110" s="4">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D110" s="4">
-        <v>4920</v>
+        <v>4980</v>
       </c>
       <c r="E110" s="4">
-        <v>36038</v>
+        <v>36118</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7095</v>
+        <v>7097</v>
       </c>
       <c r="C111" s="4">
         <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>2789</v>
+        <v>2806</v>
       </c>
       <c r="E111" s="4">
-        <v>9965</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>31614</v>
+        <v>31703</v>
       </c>
       <c r="C112" s="4">
         <v>2288</v>
       </c>
       <c r="D112" s="4">
-        <v>16432</v>
+        <v>16515</v>
       </c>
       <c r="E112" s="4">
-        <v>50334</v>
+        <v>50506</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15398</v>
+        <v>15415</v>
       </c>
       <c r="C113" s="4">
         <v>1819</v>
       </c>
       <c r="D113" s="4">
-        <v>2542</v>
+        <v>2553</v>
       </c>
       <c r="E113" s="4">
-        <v>19759</v>
+        <v>19787</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13941</v>
+        <v>13945</v>
       </c>
       <c r="C114" s="4">
         <v>328</v>
       </c>
       <c r="D114" s="4">
-        <v>2415</v>
+        <v>2432</v>
       </c>
       <c r="E114" s="4">
-        <v>16684</v>
+        <v>16705</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>14711</v>
+        <v>14774</v>
       </c>
       <c r="C115" s="4">
         <v>443</v>
       </c>
       <c r="D115" s="4">
-        <v>3573</v>
+        <v>3593</v>
       </c>
       <c r="E115" s="4">
-        <v>18727</v>
+        <v>18810</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2305</v>
+        <v>2310</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
       </c>
       <c r="D116" s="4">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E116" s="4">
-        <v>3253</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>68043</v>
+        <v>68205</v>
       </c>
       <c r="C117" s="4">
-        <v>3475</v>
+        <v>3481</v>
       </c>
       <c r="D117" s="4">
-        <v>8081</v>
+        <v>8193</v>
       </c>
       <c r="E117" s="4">
-        <v>79599</v>
+        <v>79879</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8015</v>
+        <v>8020</v>
       </c>
       <c r="C118" s="4">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D118" s="4">
-        <v>3041</v>
+        <v>3101</v>
       </c>
       <c r="E118" s="4">
-        <v>12138</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C119" s="4">
         <v>9</v>
       </c>
       <c r="D119" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E119" s="4">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="C120" s="4">
         <v>172</v>
       </c>
       <c r="D120" s="4">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E120" s="4">
-        <v>2030</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6460</v>
+        <v>6463</v>
       </c>
       <c r="C121" s="4">
         <v>131</v>
       </c>
       <c r="D121" s="4">
-        <v>1025</v>
+        <v>1038</v>
       </c>
       <c r="E121" s="4">
-        <v>7616</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12145</v>
+        <v>12155</v>
       </c>
       <c r="C122" s="4">
         <v>2514</v>
       </c>
       <c r="D122" s="4">
-        <v>2975</v>
+        <v>3021</v>
       </c>
       <c r="E122" s="4">
-        <v>17634</v>
+        <v>17690</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1695</v>
+        <v>1729</v>
       </c>
       <c r="C123" s="4">
         <v>37</v>
       </c>
       <c r="D123" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E123" s="4">
-        <v>1971</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>144909</v>
+        <v>144982</v>
       </c>
       <c r="C124" s="4">
         <v>11791</v>
       </c>
       <c r="D124" s="4">
-        <v>27328</v>
+        <v>27767</v>
       </c>
       <c r="E124" s="4">
-        <v>184028</v>
+        <v>184540</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12515</v>
+        <v>12516</v>
       </c>
       <c r="C125" s="4">
         <v>489</v>
       </c>
       <c r="D125" s="4">
-        <v>3169</v>
+        <v>3183</v>
       </c>
       <c r="E125" s="4">
-        <v>16173</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>43149</v>
+        <v>43208</v>
       </c>
       <c r="C126" s="4">
-        <v>7117</v>
+        <v>7127</v>
       </c>
       <c r="D126" s="4">
-        <v>12046</v>
+        <v>12204</v>
       </c>
       <c r="E126" s="4">
-        <v>62312</v>
+        <v>62539</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>104270</v>
+        <v>104503</v>
       </c>
       <c r="C127" s="4">
-        <v>6221</v>
+        <v>6222</v>
       </c>
       <c r="D127" s="4">
-        <v>12213</v>
+        <v>12571</v>
       </c>
       <c r="E127" s="4">
-        <v>122704</v>
+        <v>123296</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="C128" s="4">
         <v>190</v>
       </c>
       <c r="D128" s="4">
-        <v>2411</v>
+        <v>2434</v>
       </c>
       <c r="E128" s="4">
-        <v>8074</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12334</v>
+        <v>12337</v>
       </c>
       <c r="C129" s="4">
         <v>391</v>
       </c>
       <c r="D129" s="4">
-        <v>3970</v>
+        <v>4035</v>
       </c>
       <c r="E129" s="4">
-        <v>16695</v>
+        <v>16763</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>91150</v>
+        <v>91394</v>
       </c>
       <c r="C130" s="4">
-        <v>4857</v>
+        <v>4858</v>
       </c>
       <c r="D130" s="4">
-        <v>13146</v>
+        <v>13430</v>
       </c>
       <c r="E130" s="4">
-        <v>109153</v>
+        <v>109682</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>20267</v>
+        <v>20332</v>
       </c>
       <c r="C131" s="4">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D131" s="4">
-        <v>6762</v>
+        <v>6831</v>
       </c>
       <c r="E131" s="4">
-        <v>28260</v>
+        <v>28397</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>27968</v>
+        <v>28244</v>
       </c>
       <c r="C134" s="4">
         <v>587</v>
       </c>
       <c r="D134" s="4">
-        <v>16643</v>
+        <v>16851</v>
       </c>
       <c r="E134" s="4">
-        <v>45198</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C135" s="4">
         <v>37</v>
       </c>
       <c r="D135" s="4">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E135" s="4">
-        <v>1838</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="C137" s="4">
         <v>42</v>
       </c>
       <c r="D137" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E137" s="4">
-        <v>2044</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>24049</v>
+        <v>24058</v>
       </c>
       <c r="C138" s="4">
         <v>4010</v>
       </c>
       <c r="D138" s="4">
-        <v>5243</v>
+        <v>5375</v>
       </c>
       <c r="E138" s="4">
-        <v>33302</v>
+        <v>33443</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>39</v>
       </c>
       <c r="D139" s="4">
-        <v>2309</v>
+        <v>2340</v>
       </c>
       <c r="E139" s="4">
-        <v>2976</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6570</v>
+        <v>6572</v>
       </c>
       <c r="C140" s="4">
         <v>276</v>
       </c>
       <c r="D140" s="4">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E140" s="4">
-        <v>7097</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>19987</v>
+        <v>20111</v>
       </c>
       <c r="C141" s="4">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="D141" s="4">
-        <v>2774</v>
+        <v>2815</v>
       </c>
       <c r="E141" s="4">
-        <v>24844</v>
+        <v>25011</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5159</v>
+        <v>5161</v>
       </c>
       <c r="C142" s="4">
         <v>86</v>
       </c>
       <c r="D142" s="4">
-        <v>3902</v>
+        <v>3906</v>
       </c>
       <c r="E142" s="4">
-        <v>9147</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14660</v>
+        <v>14750</v>
       </c>
       <c r="C143" s="4">
         <v>597</v>
       </c>
       <c r="D143" s="4">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="E143" s="4">
-        <v>18110</v>
+        <v>18204</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10465</v>
+        <v>10479</v>
       </c>
       <c r="C144" s="4">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D144" s="4">
-        <v>2374</v>
+        <v>2385</v>
       </c>
       <c r="E144" s="4">
-        <v>13263</v>
+        <v>13289</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7205</v>
+        <v>7214</v>
       </c>
       <c r="C145" s="4">
         <v>210</v>
       </c>
       <c r="D145" s="4">
-        <v>2356</v>
+        <v>2388</v>
       </c>
       <c r="E145" s="4">
-        <v>9771</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8485</v>
+        <v>8496</v>
       </c>
       <c r="C146" s="4">
         <v>474</v>
       </c>
       <c r="D146" s="4">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="E146" s="4">
-        <v>10340</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>46280</v>
+        <v>46361</v>
       </c>
       <c r="C147" s="4">
         <v>2905</v>
       </c>
       <c r="D147" s="4">
-        <v>4548</v>
+        <v>4639</v>
       </c>
       <c r="E147" s="4">
-        <v>53733</v>
+        <v>53905</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>27148</v>
+        <v>27180</v>
       </c>
       <c r="C148" s="4">
         <v>567</v>
       </c>
       <c r="D148" s="4">
-        <v>4480</v>
+        <v>4607</v>
       </c>
       <c r="E148" s="4">
-        <v>32195</v>
+        <v>32354</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,7 +3570,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C149" s="4">
         <v>160</v>
@@ -3579,7 +3579,7 @@
         <v>79</v>
       </c>
       <c r="E149" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4748</v>
+        <v>4752</v>
       </c>
       <c r="C150" s="4">
         <v>818</v>
       </c>
       <c r="D150" s="4">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="E150" s="4">
-        <v>6222</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8984</v>
+        <v>8987</v>
       </c>
       <c r="C151" s="4">
         <v>314</v>
       </c>
       <c r="D151" s="4">
-        <v>1281</v>
+        <v>1291</v>
       </c>
       <c r="E151" s="4">
-        <v>10579</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,7 +3621,7 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C152" s="4">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>180140</v>
+        <v>180371</v>
       </c>
       <c r="C153" s="4">
-        <v>6275</v>
+        <v>6277</v>
       </c>
       <c r="D153" s="4">
-        <v>81707</v>
+        <v>81820</v>
       </c>
       <c r="E153" s="4">
-        <v>268122</v>
+        <v>268468</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="C154" s="4">
         <v>92</v>
       </c>
       <c r="D154" s="4">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="E154" s="4">
-        <v>4335</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11194</v>
+        <v>11195</v>
       </c>
       <c r="C155" s="4">
         <v>159</v>
       </c>
       <c r="D155" s="4">
-        <v>1560</v>
+        <v>1604</v>
       </c>
       <c r="E155" s="4">
-        <v>12913</v>
+        <v>12958</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="C156" s="4">
         <v>741</v>
       </c>
       <c r="D156" s="4">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="E156" s="4">
-        <v>4129</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>125</v>
       </c>
       <c r="D157" s="4">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E157" s="4">
-        <v>1712</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C158" s="4">
         <v>56</v>
       </c>
       <c r="D158" s="4">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E158" s="4">
-        <v>2199</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>27867</v>
+        <v>27968</v>
       </c>
       <c r="C159" s="4">
         <v>641</v>
       </c>
       <c r="D159" s="4">
-        <v>1839</v>
+        <v>1905</v>
       </c>
       <c r="E159" s="4">
-        <v>30347</v>
+        <v>30514</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>51928</v>
+        <v>51952</v>
       </c>
       <c r="C160" s="4">
         <v>320</v>
       </c>
       <c r="D160" s="4">
-        <v>4919</v>
+        <v>5251</v>
       </c>
       <c r="E160" s="4">
-        <v>57167</v>
+        <v>57523</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C161" s="4">
         <v>38</v>
       </c>
       <c r="D161" s="4">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="E161" s="4">
-        <v>3246</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>204941</v>
+        <v>205311</v>
       </c>
       <c r="C162" s="4">
         <v>9428</v>
       </c>
       <c r="D162" s="4">
-        <v>41953</v>
+        <v>42587</v>
       </c>
       <c r="E162" s="4">
-        <v>256322</v>
+        <v>257326</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C163" s="4">
         <v>41</v>
       </c>
       <c r="D163" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E163" s="4">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>25216</v>
+        <v>25267</v>
       </c>
       <c r="C164" s="4">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D164" s="4">
-        <v>4016</v>
+        <v>4071</v>
       </c>
       <c r="E164" s="4">
-        <v>30265</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3848,10 +3848,10 @@
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E165" s="4">
-        <v>2256</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>40844</v>
+        <v>40896</v>
       </c>
       <c r="C166" s="4">
-        <v>5304</v>
+        <v>5331</v>
       </c>
       <c r="D166" s="4">
-        <v>32178</v>
+        <v>32424</v>
       </c>
       <c r="E166" s="4">
-        <v>78326</v>
+        <v>78651</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14438</v>
+        <v>14471</v>
       </c>
       <c r="C167" s="4">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D167" s="4">
-        <v>5045</v>
+        <v>5065</v>
       </c>
       <c r="E167" s="4">
-        <v>20310</v>
+        <v>20365</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3863</v>
+        <v>3869</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="E168" s="4">
-        <v>5069</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3916,10 +3916,10 @@
         <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2162</v>
+        <v>2194</v>
       </c>
       <c r="E169" s="4">
-        <v>6534</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9485</v>
+        <v>9510</v>
       </c>
       <c r="C170" s="4">
         <v>752</v>
       </c>
       <c r="D170" s="4">
-        <v>2298</v>
+        <v>2313</v>
       </c>
       <c r="E170" s="4">
-        <v>12535</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>312896</v>
+        <v>313471</v>
       </c>
       <c r="C171" s="4">
-        <v>15563</v>
+        <v>15565</v>
       </c>
       <c r="D171" s="4">
-        <v>31624</v>
+        <v>32359</v>
       </c>
       <c r="E171" s="4">
-        <v>360083</v>
+        <v>361395</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6989</v>
+        <v>6990</v>
       </c>
       <c r="C172" s="4">
         <v>671</v>
       </c>
       <c r="D172" s="4">
-        <v>1441</v>
+        <v>1463</v>
       </c>
       <c r="E172" s="4">
-        <v>9101</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5075</v>
+        <v>5107</v>
       </c>
       <c r="C173" s="4">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D173" s="4">
-        <v>3285</v>
+        <v>3370</v>
       </c>
       <c r="E173" s="4">
-        <v>9013</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C174" s="4">
         <v>9</v>
@@ -4004,7 +4004,7 @@
         <v>93</v>
       </c>
       <c r="E174" s="4">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>36818</v>
+        <v>36843</v>
       </c>
       <c r="C175" s="4">
         <v>1098</v>
       </c>
       <c r="D175" s="4">
-        <v>4944</v>
+        <v>5058</v>
       </c>
       <c r="E175" s="4">
-        <v>42860</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>23080</v>
+        <v>23119</v>
       </c>
       <c r="C176" s="4">
         <v>1510</v>
       </c>
       <c r="D176" s="4">
-        <v>6976</v>
+        <v>7047</v>
       </c>
       <c r="E176" s="4">
-        <v>31566</v>
+        <v>31676</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="C177" s="4">
         <v>749</v>
       </c>
       <c r="D177" s="4">
-        <v>1695</v>
+        <v>1709</v>
       </c>
       <c r="E177" s="4">
-        <v>5547</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7635</v>
+        <v>7636</v>
       </c>
       <c r="C178" s="4">
         <v>138</v>
       </c>
       <c r="D178" s="4">
-        <v>2578</v>
+        <v>2599</v>
       </c>
       <c r="E178" s="4">
-        <v>10351</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>193345</v>
+        <v>193604</v>
       </c>
       <c r="C179" s="4">
-        <v>38100</v>
+        <v>38106</v>
       </c>
       <c r="D179" s="4">
-        <v>38434</v>
+        <v>39157</v>
       </c>
       <c r="E179" s="4">
-        <v>269879</v>
+        <v>270867</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C180" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D180" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E180" s="4">
-        <v>924</v>
+        <v>931</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>219</v>
       </c>
       <c r="D181" s="4">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="E181" s="4">
-        <v>1186</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>24820</v>
+        <v>24845</v>
       </c>
       <c r="C182" s="4">
         <v>5121</v>
       </c>
       <c r="D182" s="4">
-        <v>8074</v>
+        <v>8253</v>
       </c>
       <c r="E182" s="4">
-        <v>38015</v>
+        <v>38219</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12114</v>
+        <v>12136</v>
       </c>
       <c r="C183" s="4">
         <v>891</v>
       </c>
       <c r="D183" s="4">
-        <v>4059</v>
+        <v>4089</v>
       </c>
       <c r="E183" s="4">
-        <v>17064</v>
+        <v>17116</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8010</v>
+        <v>8050</v>
       </c>
       <c r="C184" s="4">
         <v>959</v>
       </c>
       <c r="D184" s="4">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="E184" s="4">
-        <v>11566</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>60419</v>
+        <v>60633</v>
       </c>
       <c r="C185" s="4">
         <v>5664</v>
       </c>
       <c r="D185" s="4">
-        <v>14278</v>
+        <v>14535</v>
       </c>
       <c r="E185" s="4">
-        <v>80361</v>
+        <v>80832</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C186" s="4">
         <v>210</v>
       </c>
       <c r="D186" s="4">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E186" s="4">
-        <v>3016</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9117</v>
+        <v>9129</v>
       </c>
       <c r="C187" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D187" s="4">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E187" s="4">
-        <v>10074</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>28247</v>
+        <v>28288</v>
       </c>
       <c r="C188" s="4">
         <v>1107</v>
       </c>
       <c r="D188" s="4">
-        <v>4657</v>
+        <v>4757</v>
       </c>
       <c r="E188" s="4">
-        <v>34011</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>66067</v>
+        <v>66179</v>
       </c>
       <c r="C189" s="4">
         <v>6067</v>
       </c>
       <c r="D189" s="4">
-        <v>9623</v>
+        <v>9789</v>
       </c>
       <c r="E189" s="4">
-        <v>81757</v>
+        <v>82035</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7039</v>
+        <v>7050</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="E190" s="4">
-        <v>8163</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2520</v>
+        <v>2530</v>
       </c>
       <c r="C191" s="4">
         <v>370</v>
       </c>
       <c r="D191" s="4">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="E191" s="4">
-        <v>3435</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>42238</v>
+        <v>42357</v>
       </c>
       <c r="C192" s="4">
         <v>12303</v>
       </c>
       <c r="D192" s="4">
-        <v>9250</v>
+        <v>9440</v>
       </c>
       <c r="E192" s="4">
-        <v>63791</v>
+        <v>64100</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C194" s="4">
         <v>64</v>
       </c>
       <c r="D194" s="4">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E194" s="4">
-        <v>2240</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5341</v>
+        <v>5370</v>
       </c>
       <c r="C195" s="4">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D195" s="4">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="E195" s="4">
-        <v>7177</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>5746</v>
+        <v>5766</v>
       </c>
       <c r="C196" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D196" s="4">
-        <v>694</v>
+        <v>717</v>
       </c>
       <c r="E196" s="4">
-        <v>6580</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3665</v>
+        <v>3670</v>
       </c>
       <c r="C197" s="4">
         <v>354</v>
       </c>
       <c r="D197" s="4">
-        <v>2561</v>
+        <v>2594</v>
       </c>
       <c r="E197" s="4">
-        <v>6580</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10401</v>
+        <v>10404</v>
       </c>
       <c r="C199" s="4">
         <v>259</v>
       </c>
       <c r="D199" s="4">
-        <v>5443</v>
+        <v>5486</v>
       </c>
       <c r="E199" s="4">
-        <v>16103</v>
+        <v>16149</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>64857</v>
+        <v>64991</v>
       </c>
       <c r="C200" s="4">
         <v>4872</v>
       </c>
       <c r="D200" s="4">
-        <v>4236</v>
+        <v>4295</v>
       </c>
       <c r="E200" s="4">
-        <v>73965</v>
+        <v>74158</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="C201" s="4">
         <v>143</v>
       </c>
       <c r="D201" s="4">
-        <v>2364</v>
+        <v>2402</v>
       </c>
       <c r="E201" s="4">
-        <v>7879</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16406</v>
+        <v>16422</v>
       </c>
       <c r="C202" s="4">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="D202" s="4">
-        <v>1985</v>
+        <v>2004</v>
       </c>
       <c r="E202" s="4">
-        <v>20293</v>
+        <v>20330</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5393</v>
+        <v>5395</v>
       </c>
       <c r="C203" s="4">
         <v>370</v>
       </c>
       <c r="D203" s="4">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="E203" s="4">
-        <v>7518</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5098</v>
+        <v>5102</v>
       </c>
       <c r="C204" s="4">
         <v>68</v>
       </c>
       <c r="D204" s="4">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="E204" s="4">
-        <v>7143</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>14418</v>
+        <v>14480</v>
       </c>
       <c r="C205" s="4">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D205" s="4">
-        <v>2318</v>
+        <v>2372</v>
       </c>
       <c r="E205" s="4">
-        <v>18128</v>
+        <v>18245</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>26424</v>
+        <v>26473</v>
       </c>
       <c r="C206" s="4">
         <v>6940</v>
       </c>
       <c r="D206" s="4">
-        <v>12749</v>
+        <v>12880</v>
       </c>
       <c r="E206" s="4">
-        <v>46113</v>
+        <v>46293</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="C207" s="4">
         <v>77</v>
       </c>
       <c r="D207" s="4">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="E207" s="4">
-        <v>4359</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E208" s="4">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15603</v>
+        <v>15604</v>
       </c>
       <c r="C209" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D209" s="4">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="E209" s="4">
-        <v>16345</v>
+        <v>16358</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4613,10 +4613,10 @@
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E210" s="4">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10605</v>
+        <v>10616</v>
       </c>
       <c r="C211" s="4">
         <v>399</v>
       </c>
       <c r="D211" s="4">
-        <v>2604</v>
+        <v>2613</v>
       </c>
       <c r="E211" s="4">
-        <v>13608</v>
+        <v>13628</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>97</v>
       </c>
       <c r="D212" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E212" s="4">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>159824</v>
+        <v>159893</v>
       </c>
       <c r="C213" s="4">
         <v>8870</v>
       </c>
       <c r="D213" s="4">
-        <v>17208</v>
+        <v>17278</v>
       </c>
       <c r="E213" s="4">
-        <v>185902</v>
+        <v>186041</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3782</v>
+        <v>3787</v>
       </c>
       <c r="C214" s="4">
         <v>369</v>
       </c>
       <c r="D214" s="4">
-        <v>3740</v>
+        <v>3762</v>
       </c>
       <c r="E214" s="4">
-        <v>7891</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>44778</v>
+        <v>44839</v>
       </c>
       <c r="C215" s="4">
         <v>543</v>
       </c>
       <c r="D215" s="4">
-        <v>7312</v>
+        <v>7536</v>
       </c>
       <c r="E215" s="4">
-        <v>52633</v>
+        <v>52918</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1521</v>
+        <v>1560</v>
       </c>
       <c r="E216" s="4">
-        <v>4115</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E217" s="4">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E218" s="4">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C219" s="4">
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="E219" s="4">
-        <v>1849</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3253</v>
+        <v>3256</v>
       </c>
       <c r="C220" s="4">
         <v>256</v>
       </c>
       <c r="D220" s="4">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E220" s="4">
-        <v>4222</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1417384</v>
+        <v>1421043</v>
       </c>
       <c r="C221" s="4">
-        <v>85531</v>
+        <v>85591</v>
       </c>
       <c r="D221" s="4">
-        <v>141047</v>
+        <v>149281</v>
       </c>
       <c r="E221" s="4">
-        <v>1643962</v>
+        <v>1655915</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>77418</v>
+        <v>77461</v>
       </c>
       <c r="C222" s="4">
-        <v>3110</v>
+        <v>3115</v>
       </c>
       <c r="D222" s="4">
-        <v>36430</v>
+        <v>36725</v>
       </c>
       <c r="E222" s="4">
-        <v>116958</v>
+        <v>117301</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="C224" s="4">
         <v>104</v>
       </c>
       <c r="D224" s="4">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E224" s="4">
-        <v>4139</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C225" s="4">
         <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E225" s="4">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20541</v>
+        <v>20651</v>
       </c>
       <c r="C226" s="4">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="D226" s="4">
-        <v>3093</v>
+        <v>3171</v>
       </c>
       <c r="E226" s="4">
-        <v>24708</v>
+        <v>24904</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>68202</v>
+        <v>68426</v>
       </c>
       <c r="C227" s="4">
         <v>1461</v>
       </c>
       <c r="D227" s="4">
-        <v>35945</v>
+        <v>36068</v>
       </c>
       <c r="E227" s="4">
-        <v>105608</v>
+        <v>105955</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>858633</v>
+        <v>862157</v>
       </c>
       <c r="C228" s="4">
-        <v>38075</v>
+        <v>38076</v>
       </c>
       <c r="D228" s="4">
-        <v>104598</v>
+        <v>106828</v>
       </c>
       <c r="E228" s="4">
-        <v>1001306</v>
+        <v>1007061</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9667</v>
+        <v>9673</v>
       </c>
       <c r="C229" s="4">
         <v>225</v>
       </c>
       <c r="D229" s="4">
-        <v>2317</v>
+        <v>2340</v>
       </c>
       <c r="E229" s="4">
-        <v>12209</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8049</v>
+        <v>8053</v>
       </c>
       <c r="C230" s="4">
         <v>849</v>
       </c>
       <c r="D230" s="4">
-        <v>3788</v>
+        <v>3800</v>
       </c>
       <c r="E230" s="4">
-        <v>12686</v>
+        <v>12702</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9628</v>
+        <v>9633</v>
       </c>
       <c r="C231" s="4">
         <v>1926</v>
       </c>
       <c r="D231" s="4">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="E231" s="4">
-        <v>14564</v>
+        <v>14579</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C232" s="4">
         <v>67</v>
       </c>
       <c r="D232" s="4">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="E232" s="4">
-        <v>2681</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22308</v>
+        <v>22310</v>
       </c>
       <c r="C233" s="4">
         <v>351</v>
       </c>
       <c r="D233" s="4">
-        <v>1130</v>
+        <v>1152</v>
       </c>
       <c r="E233" s="4">
-        <v>23789</v>
+        <v>23813</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>38755</v>
+        <v>38766</v>
       </c>
       <c r="C234" s="4">
         <v>1129</v>
       </c>
       <c r="D234" s="4">
-        <v>7260</v>
+        <v>7331</v>
       </c>
       <c r="E234" s="4">
-        <v>47144</v>
+        <v>47226</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16553</v>
+        <v>16604</v>
       </c>
       <c r="C235" s="4">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D235" s="4">
-        <v>5294</v>
+        <v>5333</v>
       </c>
       <c r="E235" s="4">
-        <v>23545</v>
+        <v>23637</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>35238</v>
+        <v>35256</v>
       </c>
       <c r="C236" s="4">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="D236" s="4">
-        <v>11722</v>
+        <v>11779</v>
       </c>
       <c r="E236" s="4">
-        <v>48462</v>
+        <v>48542</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>88880</v>
+        <v>88893</v>
       </c>
       <c r="C237" s="4">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D237" s="4">
-        <v>7645</v>
+        <v>7745</v>
       </c>
       <c r="E237" s="4">
-        <v>97646</v>
+        <v>97760</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>27909</v>
+        <v>27942</v>
       </c>
       <c r="C238" s="4">
         <v>739</v>
       </c>
       <c r="D238" s="4">
-        <v>2144</v>
+        <v>2277</v>
       </c>
       <c r="E238" s="4">
-        <v>30792</v>
+        <v>30958</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="C239" s="4">
         <v>123</v>
       </c>
       <c r="D239" s="4">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E239" s="4">
-        <v>4613</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>32690</v>
+        <v>32702</v>
       </c>
       <c r="C240" s="4">
         <v>532</v>
       </c>
       <c r="D240" s="4">
-        <v>4806</v>
+        <v>4827</v>
       </c>
       <c r="E240" s="4">
-        <v>38028</v>
+        <v>38061</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>320958</v>
+        <v>321215</v>
       </c>
       <c r="C241" s="4">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="D241" s="4">
-        <v>38902</v>
+        <v>39774</v>
       </c>
       <c r="E241" s="4">
-        <v>364120</v>
+        <v>365250</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>28062</v>
+        <v>28093</v>
       </c>
       <c r="C242" s="4">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D242" s="4">
-        <v>2202</v>
+        <v>2249</v>
       </c>
       <c r="E242" s="4">
-        <v>31013</v>
+        <v>31093</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>290</v>
       </c>
       <c r="D243" s="4">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="E243" s="4">
-        <v>3607</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>97609</v>
+        <v>98010</v>
       </c>
       <c r="C244" s="4">
         <v>4990</v>
       </c>
       <c r="D244" s="4">
-        <v>18149</v>
+        <v>18424</v>
       </c>
       <c r="E244" s="4">
-        <v>120748</v>
+        <v>121424</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10601</v>
+        <v>10887</v>
       </c>
       <c r="C245" s="4">
         <v>467</v>
       </c>
       <c r="D245" s="4">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="E245" s="4">
-        <v>14630</v>
+        <v>14919</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>20761</v>
+        <v>20817</v>
       </c>
       <c r="C246" s="4">
         <v>165</v>
       </c>
       <c r="D246" s="4">
-        <v>1275</v>
+        <v>1300</v>
       </c>
       <c r="E246" s="4">
-        <v>22201</v>
+        <v>22282</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>364716</v>
+        <v>365480</v>
       </c>
       <c r="C247" s="4">
-        <v>13674</v>
+        <v>13676</v>
       </c>
       <c r="D247" s="4">
-        <v>44977</v>
+        <v>46016</v>
       </c>
       <c r="E247" s="4">
-        <v>423367</v>
+        <v>425172</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>28403</v>
+        <v>28434</v>
       </c>
       <c r="C248" s="4">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D248" s="4">
-        <v>5902</v>
+        <v>5937</v>
       </c>
       <c r="E248" s="4">
-        <v>35193</v>
+        <v>35262</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E249" s="4">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>41074</v>
+        <v>41125</v>
       </c>
       <c r="C250" s="4">
         <v>2990</v>
       </c>
       <c r="D250" s="4">
-        <v>4553</v>
+        <v>4718</v>
       </c>
       <c r="E250" s="4">
-        <v>48617</v>
+        <v>48833</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14812</v>
+        <v>14825</v>
       </c>
       <c r="C251" s="4">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="D251" s="4">
-        <v>3088</v>
+        <v>3109</v>
       </c>
       <c r="E251" s="4">
-        <v>19627</v>
+        <v>19664</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C252" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D252" s="4">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E252" s="4">
-        <v>2676</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6285</v>
+        <v>6311</v>
       </c>
       <c r="C253" s="4">
         <v>514</v>
       </c>
       <c r="D253" s="4">
-        <v>1420</v>
+        <v>1503</v>
       </c>
       <c r="E253" s="4">
-        <v>8219</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15114</v>
+        <v>15124</v>
       </c>
       <c r="C254" s="4">
         <v>119</v>
       </c>
       <c r="D254" s="4">
-        <v>3263</v>
+        <v>3518</v>
       </c>
       <c r="E254" s="4">
-        <v>18496</v>
+        <v>18761</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8859</v>
+        <v>8862</v>
       </c>
       <c r="C255" s="4">
         <v>223</v>
       </c>
       <c r="D255" s="4">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E255" s="4">
-        <v>9601</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>130861</v>
+        <v>131036</v>
       </c>
       <c r="C256" s="4">
-        <v>7783</v>
+        <v>8346</v>
       </c>
       <c r="D256" s="4">
-        <v>3947</v>
+        <v>4264</v>
       </c>
       <c r="E256" s="4">
-        <v>142591</v>
+        <v>143646</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>19595211</v>
+        <v>19643058</v>
       </c>
       <c r="C257" s="4">
-        <v>1016619</v>
+        <v>1018098</v>
       </c>
       <c r="D257" s="4">
-        <v>2481635</v>
+        <v>2543010</v>
       </c>
       <c r="E257" s="4">
-        <v>23093465</v>
+        <v>23204166</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
